--- a/files/0526seq_no_gt.xlsx
+++ b/files/0526seq_no_gt.xlsx
@@ -34,169 +34,169 @@
     <t xml:space="preserve">Sales</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 1</t>
+    <t xml:space="preserve">ID: 100</t>
   </si>
   <si>
     <t xml:space="preserve">Benedict Cucum</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 2</t>
+    <t xml:space="preserve">ID: 101</t>
   </si>
   <si>
     <t xml:space="preserve">Blake Dreary</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 3</t>
+    <t xml:space="preserve">ID: 102</t>
   </si>
   <si>
     <t xml:space="preserve">Bey Twice</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 4</t>
+    <t xml:space="preserve">ID: 103</t>
   </si>
   <si>
     <t xml:space="preserve">Arnold Shawarma</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 5</t>
+    <t xml:space="preserve">ID: 104</t>
   </si>
   <si>
     <t xml:space="preserve">Clint Eastwood</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 6</t>
+    <t xml:space="preserve">ID: 105</t>
   </si>
   <si>
     <t xml:space="preserve">Olivia Calme</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 7</t>
+    <t xml:space="preserve">ID: 106</t>
   </si>
   <si>
     <t xml:space="preserve">Parah Salin</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 8</t>
+    <t xml:space="preserve">ID: 107</t>
   </si>
   <si>
     <t xml:space="preserve">Elijah Plastic</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 9</t>
+    <t xml:space="preserve">ID: 108</t>
   </si>
   <si>
     <t xml:space="preserve">Tom Softy</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 10</t>
+    <t xml:space="preserve">ID: 109</t>
   </si>
   <si>
     <t xml:space="preserve">John Badman</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 11</t>
+    <t xml:space="preserve">ID: 110</t>
   </si>
   <si>
     <t xml:space="preserve">Kanye East</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 12</t>
+    <t xml:space="preserve">ID: 111</t>
   </si>
   <si>
     <t xml:space="preserve">Reese Without</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 13</t>
+    <t xml:space="preserve">ID: 112</t>
   </si>
   <si>
     <t xml:space="preserve">Swan Ronson</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 14</t>
+    <t xml:space="preserve">ID: 113</t>
   </si>
   <si>
     <t xml:space="preserve">50 Dollar Dollar</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 15</t>
+    <t xml:space="preserve">ID: 114</t>
   </si>
   <si>
     <t xml:space="preserve">Jonah Mountain</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 16</t>
+    <t xml:space="preserve">ID: 115</t>
   </si>
   <si>
     <t xml:space="preserve">Jeff Tunnels</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 17</t>
+    <t xml:space="preserve">ID: 116</t>
   </si>
   <si>
     <t xml:space="preserve">Keira Daily</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 18</t>
+    <t xml:space="preserve">ID: 117</t>
   </si>
   <si>
     <t xml:space="preserve">Morgan Prisoner</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 19</t>
+    <t xml:space="preserve">ID: 118</t>
   </si>
   <si>
     <t xml:space="preserve">Emma Stoned</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 20</t>
+    <t xml:space="preserve">ID: 119</t>
   </si>
   <si>
     <t xml:space="preserve">Leonardo DiHatrio</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 21</t>
+    <t xml:space="preserve">ID: 120</t>
   </si>
   <si>
     <t xml:space="preserve">Tom Drive</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 22</t>
+    <t xml:space="preserve">ID: 121</t>
   </si>
   <si>
     <t xml:space="preserve">Selena Stopmez</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 23</t>
+    <t xml:space="preserve">ID: 122</t>
   </si>
   <si>
     <t xml:space="preserve">Demi Tomato</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 24</t>
+    <t xml:space="preserve">ID: 123</t>
   </si>
   <si>
     <t xml:space="preserve">Lady Haha</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 25</t>
+    <t xml:space="preserve">ID: 124</t>
   </si>
   <si>
     <t xml:space="preserve">Angelina Sad</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 26</t>
+    <t xml:space="preserve">ID: 125</t>
   </si>
   <si>
     <t xml:space="preserve">Ellen Degreedy</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 27</t>
+    <t xml:space="preserve">ID: 126</t>
   </si>
   <si>
     <t xml:space="preserve">Roger Lesse</t>
   </si>
   <si>
-    <t xml:space="preserve">ID: 28</t>
+    <t xml:space="preserve">ID: 127</t>
   </si>
   <si>
     <t xml:space="preserve">Jim Doesntcarrey</t>
@@ -644,7 +644,7 @@
   <dimension ref="B1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
